--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7597C5-3B0F-46C7-B5E4-EE0D4C281C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C21972-CA1E-43F7-9342-C09B75B738C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="948" yWindow="-108" windowWidth="29880" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>家をリフォームする</t>
   </si>
@@ -125,6 +125,13 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>入力情報のバッファ</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクジョウホウ</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -2619,7 +2626,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2749,8 +2756,12 @@
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
       <c r="F11" s="1"/>
@@ -3470,6 +3481,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3769,36 +3809,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3819,26 +3850,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -3,22 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C21972-CA1E-43F7-9342-C09B75B738C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16ACD3F-D37D-42C1-975A-C9EC4136C66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="948" yWindow="-108" windowWidth="29880" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト 1" sheetId="1" r:id="rId1"/>
-    <sheet name="プロジェクト 2" sheetId="4" r:id="rId2"/>
-    <sheet name="プロジェクト 3" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ColumnTitle1">プロジェクト_1[[#Headers],[完了率 (%)]]</definedName>
-    <definedName name="ColumnTitle2">プロジェクト_2[[#Headers],[完了率 (%)]]</definedName>
-    <definedName name="ColumnTitle3">プロジェクト_23[[#Headers],[完了率 (%)]]</definedName>
+    <definedName name="ColumnTitle2">#REF!</definedName>
+    <definedName name="ColumnTitle3">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'プロジェクト 1'!$7:$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'プロジェクト 2'!$7:$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'プロジェクト 3'!$7:$7</definedName>
     <definedName name="RowTitleRegion1..D4">'プロジェクト 1'!$B$4:$C$4</definedName>
     <definedName name="タイトル">'プロジェクト 1'!$B$3</definedName>
   </definedNames>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>家をリフォームする</t>
   </si>
@@ -45,27 +41,6 @@
     <t>フェーズ</t>
   </si>
   <si>
-    <t>計画</t>
-  </si>
-  <si>
-    <t>準備</t>
-  </si>
-  <si>
-    <t>タスク a</t>
-  </si>
-  <si>
-    <t>タスク b</t>
-  </si>
-  <si>
-    <t>タスク c</t>
-  </si>
-  <si>
-    <t>タスク d</t>
-  </si>
-  <si>
-    <t>フォローアップ</t>
-  </si>
-  <si>
     <t>Iris Lepik</t>
   </si>
   <si>
@@ -76,18 +51,6 @@
   </si>
   <si>
     <t>メモ</t>
-  </si>
-  <si>
-    <t>プロジェクト 2</t>
-  </si>
-  <si>
-    <t>タスク e</t>
-  </si>
-  <si>
-    <t>タスク f</t>
-  </si>
-  <si>
-    <t>プロジェクト 3</t>
   </si>
   <si>
     <r>
@@ -148,7 +111,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,14 +268,6 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="4"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -679,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -701,12 +656,6 @@
     <xf numFmtId="56" fontId="18" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
@@ -723,9 +672,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -779,511 +725,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="良い" xfId="12" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="47" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="47" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b val="0"/>
@@ -1695,21 +1137,21 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="表スタイルライト 8 2" pivot="0" count="6" xr9:uid="{DF1626B1-5BCD-B143-A65E-8FF6778B21E4}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="headerRow" dxfId="44"/>
-      <tableStyleElement type="firstColumn" dxfId="43"/>
-      <tableStyleElement type="lastColumn" dxfId="42"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="41"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="40"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="firstColumn" dxfId="21"/>
+      <tableStyleElement type="lastColumn" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="プロジェクトの作業リスト" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="39"/>
-      <tableStyleElement type="headerRow" dxfId="38"/>
-      <tableStyleElement type="totalRow" dxfId="37"/>
-      <tableStyleElement type="firstColumn" dxfId="36"/>
-      <tableStyleElement type="lastColumn" dxfId="35"/>
-      <tableStyleElement type="firstRowStripe" dxfId="34"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="lastColumn" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1904,368 +1346,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2006159</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>337048</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>223272</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="グラフィック 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D02AC6A-BB7F-0D60-9DD6-283A2730804F}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5104480" y="828051"/>
-          <a:ext cx="1767077" cy="2256315"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1314480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>232</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5937</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>344130</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="グラフィック 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391FE8F1-E8D4-5E05-3D02-D25C6B39B438}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="31422"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4558129" y="232"/>
-          <a:ext cx="2284069" cy="1871330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1275437</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>146767</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1732098</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>222967</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="楕円 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9CC609D-3207-834E-A393-C085549A2808}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4513937" y="527767"/>
-          <a:ext cx="456661" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1219198</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>228004</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2336799</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>566286</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="楕円 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E751F15-8795-4D41-9D55-3C9B8E950A47}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4444998" y="228004"/>
-          <a:ext cx="1117601" cy="1100282"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>867</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>181592</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="グラフィック 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49233FA5-1EE2-44F9-9684-3D33578BFA34}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3779520" y="0"/>
-          <a:ext cx="2751687" cy="2467592"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1553029</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>222984</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3059847</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>196958</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="グラフィック 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC01D5FC-4DA1-4CA8-BB30-BCEDB571689A}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="4270" t="12234" r="11533" b="4594"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4646749" y="603984"/>
-          <a:ext cx="1506818" cy="1497974"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="プロジェクト 1" displayName="プロジェクト_1" ref="B7:E16" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="プロジェクト 1" displayName="プロジェクト_1" ref="B7:E16" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
   <autoFilter ref="B7:E16" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2273,61 +1355,15 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="完了率 (%)" totalsRowLabel="集計" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フェーズ" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="期限まで" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="日付"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メモ" totalsRowFunction="count" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="完了率 (%)" totalsRowLabel="集計" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フェーズ" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="期限まで" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="日付"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メモ" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="表スタイルライト 8 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
       <x14:table altTextSummary="この表にプロジェクト 1 の完了率、フェーズ、期日、メモを入力します"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="プロジェクト 2" displayName="プロジェクト_2" ref="B7:E16" headerRowDxfId="21" dataDxfId="20" totalsRowDxfId="19">
-  <autoFilter ref="B7:E16" xr:uid="{00000000-0009-0000-0100-00000C000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="完了率 (%)" totalsRowLabel="集計" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="フェーズ" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="期限まで" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="日付"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="メモ" totalsRowFunction="count" dataDxfId="12" totalsRowDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="表スタイルライト 8 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="この表にプロジェクト 2 の完了率、フェーズ、期日、メモを入力します"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C82ED3A-279F-EE4A-A430-ADA3137F78B0}" name="プロジェクト 23" displayName="プロジェクト_23" ref="B7:E16" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B7:E16" xr:uid="{8C82ED3A-279F-EE4A-A430-ADA3137F78B0}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{39F817D2-90F9-B148-A8AF-5038AC9D1FD6}" name="完了率 (%)" totalsRowLabel="集計" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{DF8FF19F-F760-3046-9919-79AF0B3DFE16}" name="フェーズ" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{01619979-D0F2-4244-B82D-EDE1ACD8CF4C}" name="期限まで" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="日付"/>
-    <tableColumn id="4" xr3:uid="{30E698D5-102F-0245-BFE8-75E7AF079654}" name="メモ" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="表スタイルライト 8 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="この表にプロジェクト 2 の完了率、フェーズ、期日、メモを入力します"/>
     </ext>
   </extLst>
 </table>
@@ -2652,46 +1688,46 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2711,10 +1747,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -2724,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
@@ -2736,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
@@ -2745,10 +1781,10 @@
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
@@ -2760,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
@@ -2870,646 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor theme="5"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="1.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.6328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" style="2"/>
-    <col min="8" max="8" width="6.08984375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.36328125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-  </mergeCells>
-  <phoneticPr fontId="17"/>
-  <conditionalFormatting sqref="B8:B12">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4FE84E87-02EE-403C-B384-6F502DF2F29C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B16">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{00000000-000E-0000-0100-000002000000}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="11">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この見出しの下のこの列にメモを入力します" sqref="E7" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この見出しの下にあるこの列に期日を入力します" sqref="D7" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この見出しの下にあるこの列にプロジェクトのフェーズを入力します" sqref="C7" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="下の表にプロジェクト 2 の詳細を入力します" sqref="B2:E2" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この見出しの下にあるこの列に完了率 (%) を入力します。完了率を示すデータ バーは自動的に更新されます。見出しフィルターを使用して、特定のエントリを検索します" sqref="B7" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このワークシートにプロジェクト 2 のタスク一覧を作成します" sqref="A1" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルに期日を入力します" sqref="D5:E5" xr:uid="{0E667440-DA64-154F-9D61-9ACFD75C2D2B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右のセルに期日を入力します" sqref="B5:C5" xr:uid="{622E2E40-4EFB-4045-9D59-B4B4ADC07946}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右のセルに完了予定のユーザーの名前を入力します" sqref="B4:C4" xr:uid="{3CA1976E-14FA-4340-BDDB-3478E47209E0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルに完了予定のユーザーの名前を入力します" sqref="D4:E4" xr:uid="{B651C331-BF6F-B14E-A604-53E5FC81F7DA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルにはワークシートのタイトルが入ります。このプロジェクトを完了するユーザーの名前をセル D4 に、期日をセル D5 に入力します。表のセル B7 以降にはプロジェクトの詳細を入力します" sqref="B3:E3" xr:uid="{321E8E8C-5668-46E1-B8F8-163281DFB0E2}"/>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter differentFirst="1">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FE84E87-02EE-403C-B384-6F502DF2F29C}">
-            <x14:dataBar gradient="0" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:negativeFillColor theme="5"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B8:B12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{00000000-000E-0000-0100-000002000000}">
-            <x14:dataBar gradient="0" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:negativeFillColor theme="5"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B13:B16</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="6" tint="-0.249977111117893"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="1.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.6328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" style="2"/>
-    <col min="8" max="8" width="6.08984375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.36328125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-  </mergeCells>
-  <phoneticPr fontId="17"/>
-  <conditionalFormatting sqref="B8:B12">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B29B3C0A-F30A-4BD3-A3CC-48A2F0F8B070}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B16">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BAAAE42B-B085-584F-8F33-0A15317589A7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="11">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この見出しの下のこの列にメモを入力します" sqref="E7" xr:uid="{0DF9FFC3-2FBD-8540-820E-1E2523F84458}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この見出しの下にあるこの列に期日を入力します" sqref="D7" xr:uid="{A4E6159D-EBFF-AA4A-BA08-A73C628D9A19}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この見出しの下にあるこの列にプロジェクトのフェーズを入力します" sqref="C7" xr:uid="{D2744B46-A918-7140-8ADF-9BE08347973E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この見出しの下にあるこの列に完了率 (%) を入力します。完了率を示すデータ バーは自動的に更新されます。見出しフィルターを使用して、特定のエントリを検索します" sqref="B7" xr:uid="{44763A56-3717-084F-80B9-7FD8A2B16926}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右のセルに期日を入力します" sqref="B5:C5" xr:uid="{57E7D95F-1778-D847-819C-8DEF6FA466B8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルに期日を入力します" sqref="D5:E5" xr:uid="{E15DA3D4-0FCB-A14A-8492-3EEEDE62FF5A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右のセルに完了予定のユーザーの名前を入力します" sqref="B4:C4" xr:uid="{07D7FCD8-4616-4649-9544-DCC0326B801E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルに完了予定のユーザーの名前を入力します" sqref="D4:E4" xr:uid="{777DA2E5-391E-0A40-AF8D-0FE572E4B120}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このワークシートにプロジェクト 3 のタスク一覧を作成します" sqref="A1" xr:uid="{F3097B1A-1AD8-EC4B-96CF-413488C29E11}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="下の表にプロジェクト 3 の詳細を入力します" sqref="B2:E2" xr:uid="{6A65F05A-3D2C-B74F-85E4-8023BDFD484C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルにはワークシートのタイトルが入ります。このプロジェクトを完了するユーザーの名前をセル D4 に、期日をセル D5 に入力します。表のセル B7 以降にはプロジェクトの詳細を入力します" sqref="B3:E3" xr:uid="{07C833FE-D3EA-4F17-A4D1-6754AE2F49E1}"/>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter differentFirst="1">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B29B3C0A-F30A-4BD3-A3CC-48A2F0F8B070}">
-            <x14:dataBar gradient="0" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:negativeFillColor theme="5"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B8:B12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BAAAE42B-B085-584F-8F33-0A15317589A7}">
-            <x14:dataBar gradient="0" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:negativeFillColor theme="5"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B13:B16</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3809,27 +2206,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3850,6 +2256,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16ACD3F-D37D-42C1-975A-C9EC4136C66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D845529-B427-4D19-9430-9EA12860E195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="-108" windowWidth="29880" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5112" yWindow="900" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>家をリフォームする</t>
   </si>
@@ -65,13 +65,6 @@
     </r>
   </si>
   <si>
-    <t>アイテムスポーンのんネットワーク対応</t>
-    <rPh sb="16" eb="18">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>座標同期コンポーネント作成</t>
     <rPh sb="0" eb="4">
       <t>ザヒョウドウキ</t>
@@ -95,6 +88,24 @@
     <t>入力情報のバッファ</t>
     <rPh sb="0" eb="4">
       <t>ニュウリョクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>アイテムスポーンのネットワーク対応</t>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ドローンコンポーネントのInitialize</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>AddressableのLoad修正</t>
+    <rPh sb="16" eb="18">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -1661,8 +1672,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1760,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
@@ -1772,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4"/>
@@ -1784,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
@@ -1796,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
@@ -1804,16 +1815,24 @@
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="4"/>
       <c r="F13" s="1"/>
@@ -1874,7 +1893,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このワークシートにプロジェクト 1 のタスク一覧を作成します" sqref="A1" xr:uid="{3A02CD50-E953-453F-9B2D-2EE0528C4E94}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -1907,6 +1926,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2206,15 +2234,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2236,6 +2255,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2256,14 +2283,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
   <ds:schemaRefs>

--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D845529-B427-4D19-9430-9EA12860E195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07F89E-2CE0-4907-BE90-32ED249D04AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="900" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1673,7 +1673,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1828,7 +1828,7 @@
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1926,15 +1926,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2234,6 +2225,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2255,14 +2255,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2283,6 +2275,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
   <ds:schemaRefs>

--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07F89E-2CE0-4907-BE90-32ED249D04AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566758A-4042-4F8F-93CE-A93DCE991D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="900" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>家をリフォームする</t>
   </si>
@@ -106,6 +106,26 @@
     <t>AddressableのLoad修正</t>
     <rPh sb="16" eb="18">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>アイテムの影響を自分も受ける</t>
+    <rPh sb="5" eb="7">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>たまにキーUpが反映されない</t>
+    <rPh sb="8" eb="10">
+      <t>ハンエイ</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -1673,7 +1693,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1768,7 +1788,7 @@
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1839,16 +1859,24 @@
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
       <c r="F15" s="1"/>
@@ -1926,6 +1954,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2225,15 +2262,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2255,6 +2283,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2275,14 +2311,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
   <ds:schemaRefs>

--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566758A-4042-4F8F-93CE-A93DCE991D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4F8F79-F694-44DD-A25D-7E705188F5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="900" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>家をリフォームする</t>
   </si>
@@ -126,6 +126,62 @@
     <t>たまにキーUpが反映されない</t>
     <rPh sb="8" eb="10">
       <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>アイテム取得送信</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>アイテム使用送信</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>アイテム同士の接触判定修正</t>
+    <rPh sb="4" eb="6">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>セッショクハンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>座標同期の許容距離追加</t>
+    <rPh sb="0" eb="4">
+      <t>ザヒョウドウキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ゲーム切断対応</t>
+    <rPh sb="3" eb="7">
+      <t>セツダンタイオウ</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -665,7 +721,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -685,6 +741,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="56" fontId="18" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="18" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -1378,8 +1437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="プロジェクト 1" displayName="プロジェクト_1" ref="B7:E16" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B7:E16" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="プロジェクト 1" displayName="プロジェクト_1" ref="B7:E27" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B7:E27" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1690,10 +1749,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1719,46 +1778,46 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1860,7 +1919,7 @@
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -1872,7 +1931,7 @@
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -1883,19 +1942,113 @@
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1907,7 +2060,7 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
-  <conditionalFormatting sqref="B8:B16">
+  <conditionalFormatting sqref="B8:B27">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1945,7 +2098,7 @@
               <x14:negativeFillColor theme="5"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B8:B16</xm:sqref>
+          <xm:sqref>B8:B27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1954,15 +2107,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2262,6 +2406,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2283,14 +2436,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2311,6 +2456,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
   <ds:schemaRefs>

--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4F8F79-F694-44DD-A25D-7E705188F5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4749EE8-4F28-4A4B-9899-CE4446A6D9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="900" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1752,7 +1752,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1943,7 +1943,7 @@
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1955,7 +1955,7 @@
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -2107,6 +2107,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2406,15 +2415,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2436,6 +2436,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2456,14 +2464,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
   <ds:schemaRefs>

--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4749EE8-4F28-4A4B-9899-CE4446A6D9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A97BF0C-1C5D-4A27-A3CD-81AD683864C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="900" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>家をリフォームする</t>
   </si>
@@ -182,6 +182,35 @@
     <t>ゲーム切断対応</t>
     <rPh sb="3" eb="7">
       <t>セツダンタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ステータス同期</t>
+    <rPh sb="5" eb="7">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ダメージパケット</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>死亡パケット</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ギミックリファクタリング</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ネットワークアセンブリ分け</t>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -1752,7 +1781,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1996,9 +2025,11 @@
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
     </row>
@@ -2006,7 +2037,9 @@
       <c r="B22" s="5">
         <v>0</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
     </row>
@@ -2014,7 +2047,9 @@
       <c r="B23" s="5">
         <v>0</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="4"/>
     </row>
@@ -2022,7 +2057,9 @@
       <c r="B24" s="5">
         <v>0</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="4"/>
     </row>
@@ -2030,7 +2067,9 @@
       <c r="B25" s="5">
         <v>0</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
     </row>
@@ -2107,15 +2146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2415,6 +2445,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2436,14 +2475,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2464,6 +2495,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
   <ds:schemaRefs>

--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A97BF0C-1C5D-4A27-A3CD-81AD683864C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A034B8AF-D122-4552-83E2-6E7FCE7091AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="900" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1780,8 +1780,8 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -2146,6 +2146,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2445,15 +2454,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2475,6 +2475,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2495,14 +2503,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
   <ds:schemaRefs>

--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A034B8AF-D122-4552-83E2-6E7FCE7091AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36F3856-EA1D-4588-BF5B-AF3AFDC606BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="900" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>家をリフォームする</t>
   </si>
@@ -211,6 +211,20 @@
     <t>ネットワークアセンブリ分け</t>
     <rPh sb="11" eb="12">
       <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>オプション追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>設定値保存</t>
+    <rPh sb="0" eb="5">
+      <t>セッテイチホゾン</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -1780,8 +1794,8 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2015,7 +2029,7 @@
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>22</v>
@@ -2075,9 +2089,11 @@
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
     </row>
@@ -2085,7 +2101,9 @@
       <c r="B27" s="5">
         <v>0</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
     </row>
@@ -2146,15 +2164,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2454,6 +2463,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2475,14 +2493,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2503,6 +2513,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
   <ds:schemaRefs>

--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36F3856-EA1D-4588-BF5B-AF3AFDC606BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE543D5B-CCC4-40AC-A0C7-15CAEEA8E7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="900" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>家をリフォームする</t>
   </si>
@@ -225,6 +225,13 @@
     <t>設定値保存</t>
     <rPh sb="0" eb="5">
       <t>セッテイチホゾン</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>マテリアル修正</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -764,7 +771,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -787,6 +794,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="56" fontId="18" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -1480,8 +1490,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="プロジェクト 1" displayName="プロジェクト_1" ref="B7:E27" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B7:E27" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="プロジェクト 1" displayName="プロジェクト_1" ref="B7:E28" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B7:E28" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1792,10 +1802,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1821,46 +1831,46 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2069,7 +2079,7 @@
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
@@ -2106,6 +2116,16 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2117,7 +2137,7 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
-  <conditionalFormatting sqref="B8:B27">
+  <conditionalFormatting sqref="B8:B28">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -2155,7 +2175,7 @@
               <x14:negativeFillColor theme="5"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B8:B27</xm:sqref>
+          <xm:sqref>B8:B28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2164,6 +2184,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2463,15 +2492,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2493,6 +2513,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2513,14 +2541,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
   <ds:schemaRefs>

--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE543D5B-CCC4-40AC-A0C7-15CAEEA8E7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF42BA-30CF-41ED-A37F-E66481823D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5112" yWindow="900" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1804,8 +1804,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -2184,15 +2184,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2492,6 +2483,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2513,14 +2513,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AC9EBB0-AD41-4BF1-B57D-7B2B9A09E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2541,6 +2533,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B3AC39-247E-4FD2-8C54-CA3673D22891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{765767E8-B061-40D5-A010-B00A8B478EFA}">
   <ds:schemaRefs>

--- a/ToDoリスト.xlsx
+++ b/ToDoリスト.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF42BA-30CF-41ED-A37F-E66481823D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E884912-88C9-4487-9BF1-93C0072D6BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="900" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="1296" windowWidth="20628" windowHeight="12564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>家をリフォームする</t>
   </si>
@@ -225,13 +225,6 @@
     <t>設定値保存</t>
     <rPh sb="0" eb="5">
       <t>セッテイチホゾン</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>マテリアル修正</t>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -1490,8 +1483,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="プロジェクト 1" displayName="プロジェクト_1" ref="B7:E28" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B7:E28" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="プロジェクト 1" displayName="プロジェクト_1" ref="B7:E27" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B7:E27" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1804,9 +1797,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2109,7 +2100,7 @@
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>29</v>
@@ -2118,12 +2109,8 @@
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
     </row>
@@ -2137,7 +2124,7 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
-  <conditionalFormatting sqref="B8:B28">
+  <conditionalFormatting sqref="B8:B27">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -2151,7 +2138,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このワークシートにプロジェクト 1 のタスク一覧を作成します" sqref="A1" xr:uid="{3A02CD50-E953-453F-9B2D-2EE0528C4E94}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -2175,7 +2162,7 @@
               <x14:negativeFillColor theme="5"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B8:B28</xm:sqref>
+          <xm:sqref>B8:B27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
